--- a/CiscoMPP/TAP_CiscoMPP_BroadWorks_TestPlan/TAP_CiscoMPP_Broadworks_TestPlan.xlsx
+++ b/CiscoMPP/TAP_CiscoMPP_BroadWorks_TestPlan/TAP_CiscoMPP_Broadworks_TestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyathakula\Documents\GitHub\tekVizion-360AP-Golden-Test-Suite\CiscoMPP\TAP_CiscoMPP_BroadWorks_TestPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C157D0-F0EB-4865-B7BD-C5544E3198CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBDB3FE-AEE0-4FE1-BD16-99C966A6ED70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1307,17 +1307,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1325,9 +1325,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,11 +1679,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1702,11 +1702,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1719,9 +1719,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1734,9 +1734,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1749,9 +1749,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1764,9 +1764,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1779,9 +1779,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1794,11 +1794,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1811,9 +1811,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1826,9 +1826,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1841,11 +1841,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1858,11 +1858,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1875,9 +1875,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1890,11 +1890,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1907,9 +1907,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1922,9 +1922,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1937,11 +1937,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1954,11 +1954,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1971,9 +1971,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1986,9 +1986,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2001,9 +2001,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="8" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2016,9 +2016,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2031,9 +2031,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2046,9 +2046,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2061,9 +2061,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7" t="s">
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2076,11 +2076,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2093,9 +2093,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2108,9 +2108,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2123,9 +2123,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2138,9 +2138,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2153,9 +2153,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="7" t="s">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2168,9 +2168,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="8" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2183,9 +2183,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="7" t="s">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2198,9 +2198,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="8" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="7" t="s">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2213,9 +2213,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="7" t="s">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2228,9 +2228,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="8" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2243,9 +2243,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="8" customFormat="1" ht="360" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="7" t="s">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="360" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2258,9 +2258,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="8" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="7" t="s">
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2273,11 +2273,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="8" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="4" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2290,9 +2290,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="8" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="7" t="s">
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C41" s="2" t="s">
